--- a/Prototypes/Maize/Observations/SoilWater.xlsx
+++ b/Prototypes/Maize/Observations/SoilWater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="22980" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="soilMoisturePerc" sheetId="1" r:id="rId1"/>
@@ -76,24 +76,6 @@
     <t>Sum of SoilWaterContent(mm)</t>
   </si>
   <si>
-    <t>Lincoln2012NitrogenNilIrrigationFull</t>
-  </si>
-  <si>
-    <t>Lincoln2012NitrogenNilIrrigationNil</t>
-  </si>
-  <si>
-    <t>Lincoln2012NitrogenLowIrrigationFull</t>
-  </si>
-  <si>
-    <t>Lincoln2012NitrogenLowIrrigationNil</t>
-  </si>
-  <si>
-    <t>Lincoln2012NitrogenMedIrrigationFull</t>
-  </si>
-  <si>
-    <t>Lincoln2012NitrogenMedIrrigationNil</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -104,6 +86,24 @@
   </si>
   <si>
     <t>ProfileWater</t>
+  </si>
+  <si>
+    <t>Lincoln2012NitNilIrrFull</t>
+  </si>
+  <si>
+    <t>Lincoln2012NitNilIrrNil</t>
+  </si>
+  <si>
+    <t>Lincoln2012NitLowIrrFull</t>
+  </si>
+  <si>
+    <t>Lincoln2012NitLowIrrNil</t>
+  </si>
+  <si>
+    <t>Lincoln2012NitMedIrrFull</t>
+  </si>
+  <si>
+    <t>Lincoln2012NitMedIrrNil</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:K128"/>
     </sheetView>
   </sheetViews>
@@ -4187,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4264,10 +4264,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="str">
         <f>"Soil.SoilWater.SW("&amp;F1&amp;")"</f>
@@ -4334,7 +4334,7 @@
         <v>Soil.SoilWater.SWmm(8)</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(A4,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E4" s="1">
         <v>41205</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(A5,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E5" s="1">
         <v>41235</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(A6,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E6" s="1">
         <v>41242</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(A7,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E7" s="1">
         <v>41249</v>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(A8,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E8" s="1">
         <v>41256</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(A9,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E9" s="1">
         <v>41263</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(A10,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E10" s="1">
         <v>41270</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(A11,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E11" s="1">
         <v>41277</v>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(A12,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E12" s="1">
         <v>41284</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(A13,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E13" s="1">
         <v>41291</v>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(A14,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E14" s="1">
         <v>41298</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(A15,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E15" s="1">
         <v>41305</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(A16,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E16" s="1">
         <v>41312</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(A17,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E17" s="1">
         <v>41319</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(A18,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E18" s="1">
         <v>41326</v>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(A19,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E19" s="1">
         <v>41333</v>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(A20,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E20" s="1">
         <v>41340</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(A21,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E21" s="1">
         <v>41347</v>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(A22,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E22" s="1">
         <v>41354</v>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(A23,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E23" s="1">
         <v>41361</v>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(A24,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="E24" s="1">
         <v>41368</v>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(A25,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E25" s="1">
         <v>41205</v>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(A26,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E26" s="1">
         <v>41235</v>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="D27" t="str">
         <f>VLOOKUP(A27,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E27" s="1">
         <v>41242</v>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="D28" t="str">
         <f>VLOOKUP(A28,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E28" s="1">
         <v>41249</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(A29,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E29" s="1">
         <v>41256</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="D30" t="str">
         <f>VLOOKUP(A30,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E30" s="1">
         <v>41263</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(A31,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E31" s="1">
         <v>41270</v>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(A32,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E32" s="1">
         <v>41277</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(A33,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E33" s="1">
         <v>41284</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(A34,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E34" s="1">
         <v>41291</v>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(A35,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E35" s="1">
         <v>41298</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(A36,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E36" s="1">
         <v>41305</v>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(A37,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E37" s="1">
         <v>41312</v>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(A38,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E38" s="1">
         <v>41319</v>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(A39,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E39" s="1">
         <v>41326</v>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(A40,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E40" s="1">
         <v>41333</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="D41" t="str">
         <f>VLOOKUP(A41,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E41" s="1">
         <v>41340</v>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(A42,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E42" s="1">
         <v>41347</v>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(A43,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E43" s="1">
         <v>41354</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(A44,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E44" s="1">
         <v>41361</v>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(A45,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="E45" s="1">
         <v>41368</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="D46" t="str">
         <f>VLOOKUP(A46,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E46" s="1">
         <v>41205</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="D47" t="str">
         <f>VLOOKUP(A47,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E47" s="1">
         <v>41235</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="D48" t="str">
         <f>VLOOKUP(A48,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E48" s="1">
         <v>41242</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="D49" t="str">
         <f>VLOOKUP(A49,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E49" s="1">
         <v>41249</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D50" t="str">
         <f>VLOOKUP(A50,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E50" s="1">
         <v>41256</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="D51" t="str">
         <f>VLOOKUP(A51,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E51" s="1">
         <v>41263</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(A52,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E52" s="1">
         <v>41270</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="D53" t="str">
         <f>VLOOKUP(A53,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E53" s="1">
         <v>41277</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D54" t="str">
         <f>VLOOKUP(A54,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E54" s="1">
         <v>41284</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="D55" t="str">
         <f>VLOOKUP(A55,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E55" s="1">
         <v>41291</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D56" t="str">
         <f>VLOOKUP(A56,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E56" s="1">
         <v>41298</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(A57,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E57" s="1">
         <v>41305</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(A58,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E58" s="1">
         <v>41312</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D59" t="str">
         <f>VLOOKUP(A59,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E59" s="1">
         <v>41319</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(A60,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E60" s="1">
         <v>41326</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(A61,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E61" s="1">
         <v>41333</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(A62,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E62" s="1">
         <v>41340</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(A63,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E63" s="1">
         <v>41347</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(A64,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E64" s="1">
         <v>41354</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(A65,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E65" s="1">
         <v>41361</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(A66,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="E66" s="1">
         <v>41368</v>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(A67,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E67" s="1">
         <v>41205</v>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(A68,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E68" s="1">
         <v>41235</v>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="D69" t="str">
         <f>VLOOKUP(A69,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E69" s="1">
         <v>41242</v>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(A70,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E70" s="1">
         <v>41249</v>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(A71,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E71" s="1">
         <v>41256</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(A72,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E72" s="1">
         <v>41263</v>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="D73" t="str">
         <f>VLOOKUP(A73,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E73" s="1">
         <v>41270</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D74" t="str">
         <f>VLOOKUP(A74,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E74" s="1">
         <v>41277</v>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D75" t="str">
         <f>VLOOKUP(A75,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E75" s="1">
         <v>41284</v>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(A76,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E76" s="1">
         <v>41291</v>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(A77,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E77" s="1">
         <v>41298</v>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(A78,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E78" s="1">
         <v>41305</v>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(A79,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E79" s="1">
         <v>41312</v>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(A80,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E80" s="1">
         <v>41319</v>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(A81,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E81" s="1">
         <v>41326</v>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(A82,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E82" s="1">
         <v>41333</v>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(A83,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E83" s="1">
         <v>41340</v>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(A84,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E84" s="1">
         <v>41347</v>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(A85,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E85" s="1">
         <v>41354</v>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(A86,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E86" s="1">
         <v>41361</v>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(A87,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="E87" s="1">
         <v>41368</v>
@@ -11084,7 +11084,7 @@
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(A88,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E88" s="1">
         <v>41205</v>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(A89,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E89" s="1">
         <v>41235</v>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(A90,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E90" s="1">
         <v>41242</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(A91,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E91" s="1">
         <v>41249</v>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(A92,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E92" s="1">
         <v>41256</v>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(A93,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E93" s="1">
         <v>41263</v>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(A94,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E94" s="1">
         <v>41270</v>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(A95,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E95" s="1">
         <v>41277</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(A96,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E96" s="1">
         <v>41284</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(A97,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E97" s="1">
         <v>41291</v>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(A98,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E98" s="1">
         <v>41298</v>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(A99,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E99" s="1">
         <v>41305</v>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(A100,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E100" s="1">
         <v>41312</v>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(A101,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E101" s="1">
         <v>41319</v>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(A102,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E102" s="1">
         <v>41326</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(A103,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E103" s="1">
         <v>41333</v>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(A104,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E104" s="1">
         <v>41340</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(A105,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E105" s="1">
         <v>41347</v>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(A106,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E106" s="1">
         <v>41354</v>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(A107,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E107" s="1">
         <v>41361</v>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(A108,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="E108" s="1">
         <v>41368</v>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(A109,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E109" s="1">
         <v>41205</v>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(A110,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E110" s="1">
         <v>41235</v>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(A111,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E111" s="1">
         <v>41242</v>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(A112,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E112" s="1">
         <v>41249</v>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(A113,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E113" s="1">
         <v>41256</v>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP(A114,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E114" s="1">
         <v>41263</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(A115,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E115" s="1">
         <v>41270</v>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(A116,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E116" s="1">
         <v>41277</v>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(A117,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E117" s="1">
         <v>41284</v>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(A118,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E118" s="1">
         <v>41291</v>
@@ -13567,7 +13567,7 @@
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP(A119,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E119" s="1">
         <v>41298</v>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="D120" t="str">
         <f>VLOOKUP(A120,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E120" s="1">
         <v>41305</v>
@@ -13727,7 +13727,7 @@
       </c>
       <c r="D121" t="str">
         <f>VLOOKUP(A121,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E121" s="1">
         <v>41312</v>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(A122,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E122" s="1">
         <v>41319</v>
@@ -13887,7 +13887,7 @@
       </c>
       <c r="D123" t="str">
         <f>VLOOKUP(A123,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E123" s="1">
         <v>41326</v>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D124" t="str">
         <f>VLOOKUP(A124,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E124" s="1">
         <v>41333</v>
@@ -14047,7 +14047,7 @@
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(A125,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E125" s="1">
         <v>41340</v>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(A126,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E126" s="1">
         <v>41347</v>
@@ -14207,7 +14207,7 @@
       </c>
       <c r="D127" t="str">
         <f>VLOOKUP(A127,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E127" s="1">
         <v>41354</v>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(A128,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E128" s="1">
         <v>41361</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(A129,'Simulation Names'!$B$1:$D$6,3,FALSE)</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="E129" s="1">
         <v>41368</v>
@@ -14451,7 +14451,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E6" activeCellId="1" sqref="D1:D6 E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14468,7 +14468,7 @@
         <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14483,7 +14483,7 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14498,7 +14498,7 @@
         <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14513,7 +14513,7 @@
         <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14528,7 +14528,7 @@
         <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14543,7 +14543,7 @@
         <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -14556,11 +14556,12 @@
   <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14645,7 +14646,7 @@
     <row r="2" spans="1:19">
       <c r="A2" t="str">
         <f>SoilMoistureMM!D4</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B2" s="2">
         <f>SoilMoistureMM!E4</f>
@@ -14723,7 +14724,7 @@
     <row r="3" spans="1:19">
       <c r="A3" t="str">
         <f>SoilMoistureMM!D5</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B3" s="2">
         <f>SoilMoistureMM!E5</f>
@@ -14801,7 +14802,7 @@
     <row r="4" spans="1:19">
       <c r="A4" t="str">
         <f>SoilMoistureMM!D6</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B4" s="2">
         <f>SoilMoistureMM!E6</f>
@@ -14879,7 +14880,7 @@
     <row r="5" spans="1:19">
       <c r="A5" t="str">
         <f>SoilMoistureMM!D7</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B5" s="2">
         <f>SoilMoistureMM!E7</f>
@@ -14957,7 +14958,7 @@
     <row r="6" spans="1:19">
       <c r="A6" t="str">
         <f>SoilMoistureMM!D8</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B6" s="2">
         <f>SoilMoistureMM!E8</f>
@@ -15035,7 +15036,7 @@
     <row r="7" spans="1:19">
       <c r="A7" t="str">
         <f>SoilMoistureMM!D9</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B7" s="2">
         <f>SoilMoistureMM!E9</f>
@@ -15113,7 +15114,7 @@
     <row r="8" spans="1:19">
       <c r="A8" t="str">
         <f>SoilMoistureMM!D10</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B8" s="2">
         <f>SoilMoistureMM!E10</f>
@@ -15191,7 +15192,7 @@
     <row r="9" spans="1:19">
       <c r="A9" t="str">
         <f>SoilMoistureMM!D11</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B9" s="2">
         <f>SoilMoistureMM!E11</f>
@@ -15269,7 +15270,7 @@
     <row r="10" spans="1:19">
       <c r="A10" t="str">
         <f>SoilMoistureMM!D12</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B10" s="2">
         <f>SoilMoistureMM!E12</f>
@@ -15347,7 +15348,7 @@
     <row r="11" spans="1:19">
       <c r="A11" t="str">
         <f>SoilMoistureMM!D13</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B11" s="2">
         <f>SoilMoistureMM!E13</f>
@@ -15425,7 +15426,7 @@
     <row r="12" spans="1:19">
       <c r="A12" t="str">
         <f>SoilMoistureMM!D14</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B12" s="2">
         <f>SoilMoistureMM!E14</f>
@@ -15503,7 +15504,7 @@
     <row r="13" spans="1:19">
       <c r="A13" t="str">
         <f>SoilMoistureMM!D15</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B13" s="2">
         <f>SoilMoistureMM!E15</f>
@@ -15581,7 +15582,7 @@
     <row r="14" spans="1:19">
       <c r="A14" t="str">
         <f>SoilMoistureMM!D16</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B14" s="2">
         <f>SoilMoistureMM!E16</f>
@@ -15659,7 +15660,7 @@
     <row r="15" spans="1:19">
       <c r="A15" t="str">
         <f>SoilMoistureMM!D17</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B15" s="2">
         <f>SoilMoistureMM!E17</f>
@@ -15737,7 +15738,7 @@
     <row r="16" spans="1:19">
       <c r="A16" t="str">
         <f>SoilMoistureMM!D18</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B16" s="2">
         <f>SoilMoistureMM!E18</f>
@@ -15815,7 +15816,7 @@
     <row r="17" spans="1:19">
       <c r="A17" t="str">
         <f>SoilMoistureMM!D19</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B17" s="2">
         <f>SoilMoistureMM!E19</f>
@@ -15893,7 +15894,7 @@
     <row r="18" spans="1:19">
       <c r="A18" t="str">
         <f>SoilMoistureMM!D20</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B18" s="2">
         <f>SoilMoistureMM!E20</f>
@@ -15971,7 +15972,7 @@
     <row r="19" spans="1:19">
       <c r="A19" t="str">
         <f>SoilMoistureMM!D21</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B19" s="2">
         <f>SoilMoistureMM!E21</f>
@@ -16049,7 +16050,7 @@
     <row r="20" spans="1:19">
       <c r="A20" t="str">
         <f>SoilMoistureMM!D22</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B20" s="2">
         <f>SoilMoistureMM!E22</f>
@@ -16127,7 +16128,7 @@
     <row r="21" spans="1:19">
       <c r="A21" t="str">
         <f>SoilMoistureMM!D23</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B21" s="2">
         <f>SoilMoistureMM!E23</f>
@@ -16205,7 +16206,7 @@
     <row r="22" spans="1:19">
       <c r="A22" t="str">
         <f>SoilMoistureMM!D24</f>
-        <v>Lincoln2012NitrogenNilIrrigationNil</v>
+        <v>Lincoln2012NitNilIrrNil</v>
       </c>
       <c r="B22" s="2">
         <f>SoilMoistureMM!E24</f>
@@ -16283,7 +16284,7 @@
     <row r="23" spans="1:19">
       <c r="A23" t="str">
         <f>SoilMoistureMM!D25</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B23" s="2">
         <f>SoilMoistureMM!E25</f>
@@ -16361,7 +16362,7 @@
     <row r="24" spans="1:19">
       <c r="A24" t="str">
         <f>SoilMoistureMM!D26</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B24" s="2">
         <f>SoilMoistureMM!E26</f>
@@ -16439,7 +16440,7 @@
     <row r="25" spans="1:19">
       <c r="A25" t="str">
         <f>SoilMoistureMM!D27</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B25" s="2">
         <f>SoilMoistureMM!E27</f>
@@ -16517,7 +16518,7 @@
     <row r="26" spans="1:19">
       <c r="A26" t="str">
         <f>SoilMoistureMM!D28</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B26" s="2">
         <f>SoilMoistureMM!E28</f>
@@ -16595,7 +16596,7 @@
     <row r="27" spans="1:19">
       <c r="A27" t="str">
         <f>SoilMoistureMM!D29</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B27" s="2">
         <f>SoilMoistureMM!E29</f>
@@ -16673,7 +16674,7 @@
     <row r="28" spans="1:19">
       <c r="A28" t="str">
         <f>SoilMoistureMM!D30</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B28" s="2">
         <f>SoilMoistureMM!E30</f>
@@ -16751,7 +16752,7 @@
     <row r="29" spans="1:19">
       <c r="A29" t="str">
         <f>SoilMoistureMM!D31</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B29" s="2">
         <f>SoilMoistureMM!E31</f>
@@ -16829,7 +16830,7 @@
     <row r="30" spans="1:19">
       <c r="A30" t="str">
         <f>SoilMoistureMM!D32</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B30" s="2">
         <f>SoilMoistureMM!E32</f>
@@ -16907,7 +16908,7 @@
     <row r="31" spans="1:19">
       <c r="A31" t="str">
         <f>SoilMoistureMM!D33</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B31" s="2">
         <f>SoilMoistureMM!E33</f>
@@ -16985,7 +16986,7 @@
     <row r="32" spans="1:19">
       <c r="A32" t="str">
         <f>SoilMoistureMM!D34</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B32" s="2">
         <f>SoilMoistureMM!E34</f>
@@ -17063,7 +17064,7 @@
     <row r="33" spans="1:19">
       <c r="A33" t="str">
         <f>SoilMoistureMM!D35</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B33" s="2">
         <f>SoilMoistureMM!E35</f>
@@ -17141,7 +17142,7 @@
     <row r="34" spans="1:19">
       <c r="A34" t="str">
         <f>SoilMoistureMM!D36</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B34" s="2">
         <f>SoilMoistureMM!E36</f>
@@ -17219,7 +17220,7 @@
     <row r="35" spans="1:19">
       <c r="A35" t="str">
         <f>SoilMoistureMM!D37</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B35" s="2">
         <f>SoilMoistureMM!E37</f>
@@ -17297,7 +17298,7 @@
     <row r="36" spans="1:19">
       <c r="A36" t="str">
         <f>SoilMoistureMM!D38</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B36" s="2">
         <f>SoilMoistureMM!E38</f>
@@ -17375,7 +17376,7 @@
     <row r="37" spans="1:19">
       <c r="A37" t="str">
         <f>SoilMoistureMM!D39</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B37" s="2">
         <f>SoilMoistureMM!E39</f>
@@ -17453,7 +17454,7 @@
     <row r="38" spans="1:19">
       <c r="A38" t="str">
         <f>SoilMoistureMM!D40</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B38" s="2">
         <f>SoilMoistureMM!E40</f>
@@ -17531,7 +17532,7 @@
     <row r="39" spans="1:19">
       <c r="A39" t="str">
         <f>SoilMoistureMM!D41</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B39" s="2">
         <f>SoilMoistureMM!E41</f>
@@ -17609,7 +17610,7 @@
     <row r="40" spans="1:19">
       <c r="A40" t="str">
         <f>SoilMoistureMM!D42</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B40" s="2">
         <f>SoilMoistureMM!E42</f>
@@ -17687,7 +17688,7 @@
     <row r="41" spans="1:19">
       <c r="A41" t="str">
         <f>SoilMoistureMM!D43</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B41" s="2">
         <f>SoilMoistureMM!E43</f>
@@ -17765,7 +17766,7 @@
     <row r="42" spans="1:19">
       <c r="A42" t="str">
         <f>SoilMoistureMM!D44</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B42" s="2">
         <f>SoilMoistureMM!E44</f>
@@ -17843,7 +17844,7 @@
     <row r="43" spans="1:19">
       <c r="A43" t="str">
         <f>SoilMoistureMM!D45</f>
-        <v>Lincoln2012NitrogenLowIrrigationNil</v>
+        <v>Lincoln2012NitLowIrrNil</v>
       </c>
       <c r="B43" s="2">
         <f>SoilMoistureMM!E45</f>
@@ -17921,7 +17922,7 @@
     <row r="44" spans="1:19">
       <c r="A44" t="str">
         <f>SoilMoistureMM!D46</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B44" s="2">
         <f>SoilMoistureMM!E46</f>
@@ -17999,7 +18000,7 @@
     <row r="45" spans="1:19">
       <c r="A45" t="str">
         <f>SoilMoistureMM!D47</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B45" s="2">
         <f>SoilMoistureMM!E47</f>
@@ -18077,7 +18078,7 @@
     <row r="46" spans="1:19">
       <c r="A46" t="str">
         <f>SoilMoistureMM!D48</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B46" s="2">
         <f>SoilMoistureMM!E48</f>
@@ -18155,7 +18156,7 @@
     <row r="47" spans="1:19">
       <c r="A47" t="str">
         <f>SoilMoistureMM!D49</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B47" s="2">
         <f>SoilMoistureMM!E49</f>
@@ -18233,7 +18234,7 @@
     <row r="48" spans="1:19">
       <c r="A48" t="str">
         <f>SoilMoistureMM!D50</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B48" s="2">
         <f>SoilMoistureMM!E50</f>
@@ -18311,7 +18312,7 @@
     <row r="49" spans="1:19">
       <c r="A49" t="str">
         <f>SoilMoistureMM!D51</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B49" s="2">
         <f>SoilMoistureMM!E51</f>
@@ -18389,7 +18390,7 @@
     <row r="50" spans="1:19">
       <c r="A50" t="str">
         <f>SoilMoistureMM!D52</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B50" s="2">
         <f>SoilMoistureMM!E52</f>
@@ -18467,7 +18468,7 @@
     <row r="51" spans="1:19">
       <c r="A51" t="str">
         <f>SoilMoistureMM!D53</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B51" s="2">
         <f>SoilMoistureMM!E53</f>
@@ -18545,7 +18546,7 @@
     <row r="52" spans="1:19">
       <c r="A52" t="str">
         <f>SoilMoistureMM!D54</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B52" s="2">
         <f>SoilMoistureMM!E54</f>
@@ -18623,7 +18624,7 @@
     <row r="53" spans="1:19">
       <c r="A53" t="str">
         <f>SoilMoistureMM!D55</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B53" s="2">
         <f>SoilMoistureMM!E55</f>
@@ -18701,7 +18702,7 @@
     <row r="54" spans="1:19">
       <c r="A54" t="str">
         <f>SoilMoistureMM!D56</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B54" s="2">
         <f>SoilMoistureMM!E56</f>
@@ -18779,7 +18780,7 @@
     <row r="55" spans="1:19">
       <c r="A55" t="str">
         <f>SoilMoistureMM!D57</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B55" s="2">
         <f>SoilMoistureMM!E57</f>
@@ -18857,7 +18858,7 @@
     <row r="56" spans="1:19">
       <c r="A56" t="str">
         <f>SoilMoistureMM!D58</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B56" s="2">
         <f>SoilMoistureMM!E58</f>
@@ -18935,7 +18936,7 @@
     <row r="57" spans="1:19">
       <c r="A57" t="str">
         <f>SoilMoistureMM!D59</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B57" s="2">
         <f>SoilMoistureMM!E59</f>
@@ -19013,7 +19014,7 @@
     <row r="58" spans="1:19">
       <c r="A58" t="str">
         <f>SoilMoistureMM!D60</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B58" s="2">
         <f>SoilMoistureMM!E60</f>
@@ -19091,7 +19092,7 @@
     <row r="59" spans="1:19">
       <c r="A59" t="str">
         <f>SoilMoistureMM!D61</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B59" s="2">
         <f>SoilMoistureMM!E61</f>
@@ -19169,7 +19170,7 @@
     <row r="60" spans="1:19">
       <c r="A60" t="str">
         <f>SoilMoistureMM!D62</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B60" s="2">
         <f>SoilMoistureMM!E62</f>
@@ -19247,7 +19248,7 @@
     <row r="61" spans="1:19">
       <c r="A61" t="str">
         <f>SoilMoistureMM!D63</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B61" s="2">
         <f>SoilMoistureMM!E63</f>
@@ -19325,7 +19326,7 @@
     <row r="62" spans="1:19">
       <c r="A62" t="str">
         <f>SoilMoistureMM!D64</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B62" s="2">
         <f>SoilMoistureMM!E64</f>
@@ -19403,7 +19404,7 @@
     <row r="63" spans="1:19">
       <c r="A63" t="str">
         <f>SoilMoistureMM!D65</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B63" s="2">
         <f>SoilMoistureMM!E65</f>
@@ -19481,7 +19482,7 @@
     <row r="64" spans="1:19">
       <c r="A64" t="str">
         <f>SoilMoistureMM!D66</f>
-        <v>Lincoln2012NitrogenMedIrrigationNil</v>
+        <v>Lincoln2012NitMedIrrNil</v>
       </c>
       <c r="B64" s="2">
         <f>SoilMoistureMM!E66</f>
@@ -19559,7 +19560,7 @@
     <row r="65" spans="1:19">
       <c r="A65" t="str">
         <f>SoilMoistureMM!D67</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B65" s="2">
         <f>SoilMoistureMM!E67</f>
@@ -19637,7 +19638,7 @@
     <row r="66" spans="1:19">
       <c r="A66" t="str">
         <f>SoilMoistureMM!D68</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B66" s="2">
         <f>SoilMoistureMM!E68</f>
@@ -19715,7 +19716,7 @@
     <row r="67" spans="1:19">
       <c r="A67" t="str">
         <f>SoilMoistureMM!D69</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B67" s="2">
         <f>SoilMoistureMM!E69</f>
@@ -19793,7 +19794,7 @@
     <row r="68" spans="1:19">
       <c r="A68" t="str">
         <f>SoilMoistureMM!D70</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B68" s="2">
         <f>SoilMoistureMM!E70</f>
@@ -19871,7 +19872,7 @@
     <row r="69" spans="1:19">
       <c r="A69" t="str">
         <f>SoilMoistureMM!D71</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B69" s="2">
         <f>SoilMoistureMM!E71</f>
@@ -19949,7 +19950,7 @@
     <row r="70" spans="1:19">
       <c r="A70" t="str">
         <f>SoilMoistureMM!D72</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B70" s="2">
         <f>SoilMoistureMM!E72</f>
@@ -20027,7 +20028,7 @@
     <row r="71" spans="1:19">
       <c r="A71" t="str">
         <f>SoilMoistureMM!D73</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B71" s="2">
         <f>SoilMoistureMM!E73</f>
@@ -20105,7 +20106,7 @@
     <row r="72" spans="1:19">
       <c r="A72" t="str">
         <f>SoilMoistureMM!D74</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B72" s="2">
         <f>SoilMoistureMM!E74</f>
@@ -20183,7 +20184,7 @@
     <row r="73" spans="1:19">
       <c r="A73" t="str">
         <f>SoilMoistureMM!D75</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B73" s="2">
         <f>SoilMoistureMM!E75</f>
@@ -20261,7 +20262,7 @@
     <row r="74" spans="1:19">
       <c r="A74" t="str">
         <f>SoilMoistureMM!D76</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B74" s="2">
         <f>SoilMoistureMM!E76</f>
@@ -20339,7 +20340,7 @@
     <row r="75" spans="1:19">
       <c r="A75" t="str">
         <f>SoilMoistureMM!D77</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B75" s="2">
         <f>SoilMoistureMM!E77</f>
@@ -20417,7 +20418,7 @@
     <row r="76" spans="1:19">
       <c r="A76" t="str">
         <f>SoilMoistureMM!D78</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B76" s="2">
         <f>SoilMoistureMM!E78</f>
@@ -20495,7 +20496,7 @@
     <row r="77" spans="1:19">
       <c r="A77" t="str">
         <f>SoilMoistureMM!D79</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B77" s="2">
         <f>SoilMoistureMM!E79</f>
@@ -20573,7 +20574,7 @@
     <row r="78" spans="1:19">
       <c r="A78" t="str">
         <f>SoilMoistureMM!D80</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B78" s="2">
         <f>SoilMoistureMM!E80</f>
@@ -20651,7 +20652,7 @@
     <row r="79" spans="1:19">
       <c r="A79" t="str">
         <f>SoilMoistureMM!D81</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B79" s="2">
         <f>SoilMoistureMM!E81</f>
@@ -20729,7 +20730,7 @@
     <row r="80" spans="1:19">
       <c r="A80" t="str">
         <f>SoilMoistureMM!D82</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B80" s="2">
         <f>SoilMoistureMM!E82</f>
@@ -20807,7 +20808,7 @@
     <row r="81" spans="1:19">
       <c r="A81" t="str">
         <f>SoilMoistureMM!D83</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B81" s="2">
         <f>SoilMoistureMM!E83</f>
@@ -20885,7 +20886,7 @@
     <row r="82" spans="1:19">
       <c r="A82" t="str">
         <f>SoilMoistureMM!D84</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B82" s="2">
         <f>SoilMoistureMM!E84</f>
@@ -20963,7 +20964,7 @@
     <row r="83" spans="1:19">
       <c r="A83" t="str">
         <f>SoilMoistureMM!D85</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B83" s="2">
         <f>SoilMoistureMM!E85</f>
@@ -21041,7 +21042,7 @@
     <row r="84" spans="1:19">
       <c r="A84" t="str">
         <f>SoilMoistureMM!D86</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B84" s="2">
         <f>SoilMoistureMM!E86</f>
@@ -21119,7 +21120,7 @@
     <row r="85" spans="1:19">
       <c r="A85" t="str">
         <f>SoilMoistureMM!D87</f>
-        <v>Lincoln2012NitrogenNilIrrigationFull</v>
+        <v>Lincoln2012NitNilIrrFull</v>
       </c>
       <c r="B85" s="2">
         <f>SoilMoistureMM!E87</f>
@@ -21197,7 +21198,7 @@
     <row r="86" spans="1:19">
       <c r="A86" t="str">
         <f>SoilMoistureMM!D88</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B86" s="2">
         <f>SoilMoistureMM!E88</f>
@@ -21275,7 +21276,7 @@
     <row r="87" spans="1:19">
       <c r="A87" t="str">
         <f>SoilMoistureMM!D89</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B87" s="2">
         <f>SoilMoistureMM!E89</f>
@@ -21353,7 +21354,7 @@
     <row r="88" spans="1:19">
       <c r="A88" t="str">
         <f>SoilMoistureMM!D90</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B88" s="2">
         <f>SoilMoistureMM!E90</f>
@@ -21431,7 +21432,7 @@
     <row r="89" spans="1:19">
       <c r="A89" t="str">
         <f>SoilMoistureMM!D91</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B89" s="2">
         <f>SoilMoistureMM!E91</f>
@@ -21509,7 +21510,7 @@
     <row r="90" spans="1:19">
       <c r="A90" t="str">
         <f>SoilMoistureMM!D92</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B90" s="2">
         <f>SoilMoistureMM!E92</f>
@@ -21587,7 +21588,7 @@
     <row r="91" spans="1:19">
       <c r="A91" t="str">
         <f>SoilMoistureMM!D93</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B91" s="2">
         <f>SoilMoistureMM!E93</f>
@@ -21665,7 +21666,7 @@
     <row r="92" spans="1:19">
       <c r="A92" t="str">
         <f>SoilMoistureMM!D94</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B92" s="2">
         <f>SoilMoistureMM!E94</f>
@@ -21743,7 +21744,7 @@
     <row r="93" spans="1:19">
       <c r="A93" t="str">
         <f>SoilMoistureMM!D95</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B93" s="2">
         <f>SoilMoistureMM!E95</f>
@@ -21821,7 +21822,7 @@
     <row r="94" spans="1:19">
       <c r="A94" t="str">
         <f>SoilMoistureMM!D96</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B94" s="2">
         <f>SoilMoistureMM!E96</f>
@@ -21899,7 +21900,7 @@
     <row r="95" spans="1:19">
       <c r="A95" t="str">
         <f>SoilMoistureMM!D97</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B95" s="2">
         <f>SoilMoistureMM!E97</f>
@@ -21977,7 +21978,7 @@
     <row r="96" spans="1:19">
       <c r="A96" t="str">
         <f>SoilMoistureMM!D98</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B96" s="2">
         <f>SoilMoistureMM!E98</f>
@@ -22055,7 +22056,7 @@
     <row r="97" spans="1:19">
       <c r="A97" t="str">
         <f>SoilMoistureMM!D99</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B97" s="2">
         <f>SoilMoistureMM!E99</f>
@@ -22133,7 +22134,7 @@
     <row r="98" spans="1:19">
       <c r="A98" t="str">
         <f>SoilMoistureMM!D100</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B98" s="2">
         <f>SoilMoistureMM!E100</f>
@@ -22211,7 +22212,7 @@
     <row r="99" spans="1:19">
       <c r="A99" t="str">
         <f>SoilMoistureMM!D101</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B99" s="2">
         <f>SoilMoistureMM!E101</f>
@@ -22289,7 +22290,7 @@
     <row r="100" spans="1:19">
       <c r="A100" t="str">
         <f>SoilMoistureMM!D102</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B100" s="2">
         <f>SoilMoistureMM!E102</f>
@@ -22367,7 +22368,7 @@
     <row r="101" spans="1:19">
       <c r="A101" t="str">
         <f>SoilMoistureMM!D103</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B101" s="2">
         <f>SoilMoistureMM!E103</f>
@@ -22445,7 +22446,7 @@
     <row r="102" spans="1:19">
       <c r="A102" t="str">
         <f>SoilMoistureMM!D104</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B102" s="2">
         <f>SoilMoistureMM!E104</f>
@@ -22523,7 +22524,7 @@
     <row r="103" spans="1:19">
       <c r="A103" t="str">
         <f>SoilMoistureMM!D105</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B103" s="2">
         <f>SoilMoistureMM!E105</f>
@@ -22601,7 +22602,7 @@
     <row r="104" spans="1:19">
       <c r="A104" t="str">
         <f>SoilMoistureMM!D106</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B104" s="2">
         <f>SoilMoistureMM!E106</f>
@@ -22679,7 +22680,7 @@
     <row r="105" spans="1:19">
       <c r="A105" t="str">
         <f>SoilMoistureMM!D107</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B105" s="2">
         <f>SoilMoistureMM!E107</f>
@@ -22757,7 +22758,7 @@
     <row r="106" spans="1:19">
       <c r="A106" t="str">
         <f>SoilMoistureMM!D108</f>
-        <v>Lincoln2012NitrogenLowIrrigationFull</v>
+        <v>Lincoln2012NitLowIrrFull</v>
       </c>
       <c r="B106" s="2">
         <f>SoilMoistureMM!E108</f>
@@ -22835,7 +22836,7 @@
     <row r="107" spans="1:19">
       <c r="A107" t="str">
         <f>SoilMoistureMM!D109</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B107" s="2">
         <f>SoilMoistureMM!E109</f>
@@ -22913,7 +22914,7 @@
     <row r="108" spans="1:19">
       <c r="A108" t="str">
         <f>SoilMoistureMM!D110</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B108" s="2">
         <f>SoilMoistureMM!E110</f>
@@ -22991,7 +22992,7 @@
     <row r="109" spans="1:19">
       <c r="A109" t="str">
         <f>SoilMoistureMM!D111</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B109" s="2">
         <f>SoilMoistureMM!E111</f>
@@ -23069,7 +23070,7 @@
     <row r="110" spans="1:19">
       <c r="A110" t="str">
         <f>SoilMoistureMM!D112</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B110" s="2">
         <f>SoilMoistureMM!E112</f>
@@ -23147,7 +23148,7 @@
     <row r="111" spans="1:19">
       <c r="A111" t="str">
         <f>SoilMoistureMM!D113</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B111" s="2">
         <f>SoilMoistureMM!E113</f>
@@ -23225,7 +23226,7 @@
     <row r="112" spans="1:19">
       <c r="A112" t="str">
         <f>SoilMoistureMM!D114</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B112" s="2">
         <f>SoilMoistureMM!E114</f>
@@ -23303,7 +23304,7 @@
     <row r="113" spans="1:19">
       <c r="A113" t="str">
         <f>SoilMoistureMM!D115</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B113" s="2">
         <f>SoilMoistureMM!E115</f>
@@ -23381,7 +23382,7 @@
     <row r="114" spans="1:19">
       <c r="A114" t="str">
         <f>SoilMoistureMM!D116</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B114" s="2">
         <f>SoilMoistureMM!E116</f>
@@ -23459,7 +23460,7 @@
     <row r="115" spans="1:19">
       <c r="A115" t="str">
         <f>SoilMoistureMM!D117</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B115" s="2">
         <f>SoilMoistureMM!E117</f>
@@ -23537,7 +23538,7 @@
     <row r="116" spans="1:19">
       <c r="A116" t="str">
         <f>SoilMoistureMM!D118</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B116" s="2">
         <f>SoilMoistureMM!E118</f>
@@ -23615,7 +23616,7 @@
     <row r="117" spans="1:19">
       <c r="A117" t="str">
         <f>SoilMoistureMM!D119</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B117" s="2">
         <f>SoilMoistureMM!E119</f>
@@ -23693,7 +23694,7 @@
     <row r="118" spans="1:19">
       <c r="A118" t="str">
         <f>SoilMoistureMM!D120</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B118" s="2">
         <f>SoilMoistureMM!E120</f>
@@ -23771,7 +23772,7 @@
     <row r="119" spans="1:19">
       <c r="A119" t="str">
         <f>SoilMoistureMM!D121</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B119" s="2">
         <f>SoilMoistureMM!E121</f>
@@ -23849,7 +23850,7 @@
     <row r="120" spans="1:19">
       <c r="A120" t="str">
         <f>SoilMoistureMM!D122</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B120" s="2">
         <f>SoilMoistureMM!E122</f>
@@ -23927,7 +23928,7 @@
     <row r="121" spans="1:19">
       <c r="A121" t="str">
         <f>SoilMoistureMM!D123</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B121" s="2">
         <f>SoilMoistureMM!E123</f>
@@ -24005,7 +24006,7 @@
     <row r="122" spans="1:19">
       <c r="A122" t="str">
         <f>SoilMoistureMM!D124</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B122" s="2">
         <f>SoilMoistureMM!E124</f>
@@ -24083,7 +24084,7 @@
     <row r="123" spans="1:19">
       <c r="A123" t="str">
         <f>SoilMoistureMM!D125</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B123" s="2">
         <f>SoilMoistureMM!E125</f>
@@ -24161,7 +24162,7 @@
     <row r="124" spans="1:19">
       <c r="A124" t="str">
         <f>SoilMoistureMM!D126</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B124" s="2">
         <f>SoilMoistureMM!E126</f>
@@ -24239,7 +24240,7 @@
     <row r="125" spans="1:19">
       <c r="A125" t="str">
         <f>SoilMoistureMM!D127</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B125" s="2">
         <f>SoilMoistureMM!E127</f>
@@ -24317,7 +24318,7 @@
     <row r="126" spans="1:19">
       <c r="A126" t="str">
         <f>SoilMoistureMM!D128</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B126" s="2">
         <f>SoilMoistureMM!E128</f>
@@ -24395,7 +24396,7 @@
     <row r="127" spans="1:19">
       <c r="A127" t="str">
         <f>SoilMoistureMM!D129</f>
-        <v>Lincoln2012NitrogenMedIrrigationFull</v>
+        <v>Lincoln2012NitMedIrrFull</v>
       </c>
       <c r="B127" s="2">
         <f>SoilMoistureMM!E129</f>
